--- a/Software/Splunk.xlsx
+++ b/Software/Splunk.xlsx
@@ -5,30 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9684AD-8678-8D4F-BAF3-347A175B28CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A297A1E-F0AB-254D-BE94-7215350A7377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$E$19:$R$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$E$3:$R$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106:$D$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19:$D$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$E$106:$R$106</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$106:$D$106</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$19:$D$19</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$A$3:$D$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$E$106:$R$106</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$E$19:$R$19</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$E$3:$R$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -329,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Splunk</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -536,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -872,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,18 +961,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -961,10 +970,6 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -989,12 +994,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1004,11 +1003,6 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1016,6 +1010,27 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2200,6 +2215,441 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a23eec&amp;q=XNAS%3aSPLK&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>SPLUNK INC. (XNAS:SPLK)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a23eec</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>141.80000000000001</v>
+    <v>65</v>
+    <v>1.2942</v>
+    <v>0.26</v>
+    <v>2.7789999999999998E-3</v>
+    <v>-0.49</v>
+    <v>-5.2230000000000002E-3</v>
+    <v>USD</v>
+    <v>Splunk Inc. provides solutions that use data from digital systems to help organizations identify opportunities for optimization to keep their systems secure. The Company's portfolio consists of three categories of offerings: Splunk Platform, Splunk Solutions and Customer and Partner Solutions. The Splunk portfolio of offerings is delivered as a mix of cloud services offerings and on-premise licensed software offerings that customers and partners deploy in their own environments. The Splunk platform is a real-time data platform comprising collection, streaming, indexing, search, reporting, analysis, machine learning, alerting, monitoring and data management capabilities. Its Splunk Solutions include Splunk security solutions and Splunk observability solutions. Its Customer and Partner solutions include pre-built data inputs, workflows, searches, reports, alerts, custom dashboards, flexible user interface (UI) components, custom data visualizations, and integration actions and methods.</v>
+    <v>8000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>270 Brannan Street, SAN FRANCISCO, CA, 94107 US</v>
+    <v>93.87</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.988374606248</v>
+    <v>0</v>
+    <v>91.25</v>
+    <v>15527209999</v>
+    <v>SPLUNK INC.</v>
+    <v>SPLUNK INC.</v>
+    <v>92.81</v>
+    <v>93.56</v>
+    <v>93.82</v>
+    <v>93.33</v>
+    <v>165500000</v>
+    <v>SPLK</v>
+    <v>SPLUNK INC. (XNAS:SPLK)</v>
+    <v>908695</v>
+    <v>1745575</v>
+    <v>2006</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="44">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2500,10 +2950,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB118" sqref="AB118"/>
+      <selection pane="bottomRight" activeCell="V97" sqref="V97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2514,8 +2964,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2007</v>
@@ -2724,21 +3174,21 @@
         <v>7232000000</v>
       </c>
       <c r="X3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Z3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="AA3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AA3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="e">
@@ -2963,16 +3413,16 @@
         <v>2837713000</v>
       </c>
       <c r="X6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="Y6" s="19" t="s">
+      <c r="Z6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="AA6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AA6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3105,7 +3555,7 @@
     </row>
     <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3180,16 +3630,16 @@
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
       <c r="X9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="Y9" s="19" t="s">
+      <c r="Z9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Z9" s="19" t="s">
+      <c r="AA9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AA9" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="AH9" s="15"/>
       <c r="AI9" s="15"/>
@@ -3381,21 +3831,21 @@
         <v>2076049000</v>
       </c>
       <c r="X12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="Y12" s="19" t="s">
+      <c r="Z12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="Z12" s="19" t="s">
+      <c r="AA12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AA12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -3603,16 +4053,16 @@
         <v>3073219000</v>
       </c>
       <c r="X15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="Y15" s="19" t="s">
+      <c r="Z15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="Z15" s="19" t="s">
+      <c r="AA15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AA15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3676,15 +4126,15 @@
       </c>
       <c r="Y16" s="32">
         <f>Z101/R3</f>
-        <v>4.1966040198067285</v>
+        <v>4.2497128941338493</v>
       </c>
       <c r="Z16" s="32">
         <f>Z101/R28</f>
-        <v>-55.182665063952619</v>
+        <v>-55.881012873296818</v>
       </c>
       <c r="AA16" s="33">
         <f>Z101/R106</f>
-        <v>35.889889426722974</v>
+        <v>36.344083250629637</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -3799,7 +4249,7 @@
         <v>94818000</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -3864,7 +4314,7 @@
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -4398,7 +4848,7 @@
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -4764,7 +5214,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="e">
@@ -7312,7 +7762,7 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:R80" si="12">B79/B3</f>
@@ -7564,10 +8014,10 @@
       <c r="R83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y83" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z83" s="36"/>
+      <c r="Y83" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z83" s="63"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7624,10 +8074,10 @@
       <c r="R84" s="1">
         <v>-43907000</v>
       </c>
-      <c r="Y84" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z84" s="38"/>
+      <c r="Y84" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z84" s="65"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7685,7 +8135,7 @@
         <v>92</v>
       </c>
       <c r="Y85" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z85" s="24">
         <f>R17</f>
@@ -7748,7 +8198,7 @@
         <v>92</v>
       </c>
       <c r="Y86" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z86" s="24">
         <f>R56</f>
@@ -7811,7 +8261,7 @@
         <v>449630000</v>
       </c>
       <c r="Y87" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z87" s="24">
         <f>R61</f>
@@ -7873,17 +8323,17 @@
       <c r="R88" s="1">
         <v>-13620000</v>
       </c>
-      <c r="Y88" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z88" s="40">
+      <c r="Y88" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z88" s="36">
         <f>Z85/(Z86+Z87)</f>
         <v>1.1288593458325577E-2</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:R89" si="13">(-1*B88)/B3</f>
@@ -7954,7 +8404,7 @@
         <v>3.727719894419587E-3</v>
       </c>
       <c r="Y89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z89" s="24">
         <f>R27</f>
@@ -7967,7 +8417,7 @@
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
       <c r="AS89" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AT89" s="26">
         <f>AL27</f>
@@ -8092,10 +8542,10 @@
       <c r="R91" s="1">
         <v>-1543292000</v>
       </c>
-      <c r="Y91" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z91" s="40">
+      <c r="Y91" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z91" s="36">
         <f>Z89/Z90</f>
         <v>-4.67543915826273E-2</v>
       </c>
@@ -8155,10 +8605,10 @@
       <c r="R92" s="1">
         <v>515950000</v>
       </c>
-      <c r="Y92" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z92" s="42">
+      <c r="Y92" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z92" s="38">
         <f>Z88*(1-Z91)</f>
         <v>1.1816384777293217E-2</v>
       </c>
@@ -8218,10 +8668,10 @@
       <c r="R93" s="1">
         <v>-7248000</v>
       </c>
-      <c r="Y93" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z93" s="38"/>
+      <c r="Y93" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z93" s="65"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -8279,9 +8729,9 @@
         <v>-1070160000</v>
       </c>
       <c r="Y94" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z94" s="43">
+        <v>135</v>
+      </c>
+      <c r="Z94" s="39">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -8340,11 +8790,12 @@
       <c r="R95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y95" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z95" s="45">
-        <v>1.29</v>
+      <c r="Y95" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z95" s="58" cm="1">
+        <f t="array" ref="Z95">_FV(A1,"Beta")</f>
+        <v>1.2942</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8403,9 +8854,9 @@
         <v>92</v>
       </c>
       <c r="Y96" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z96" s="43">
+        <v>137</v>
+      </c>
+      <c r="Z96" s="39">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8464,12 +8915,12 @@
       <c r="R97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y97" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z97" s="42">
+      <c r="Y97" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z97" s="38">
         <f>(Z94)+((Z95)*(Z96-Z94))</f>
-        <v>9.6484500000000001E-2</v>
+        <v>9.6665310000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -8527,10 +8978,10 @@
       <c r="R98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y98" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z98" s="38"/>
+      <c r="Y98" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z98" s="65"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8588,7 +9039,7 @@
         <v>-117574000</v>
       </c>
       <c r="Y99" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z99" s="24">
         <f>Z86+Z87</f>
@@ -8650,12 +9101,12 @@
       <c r="R100" s="10">
         <v>-117574000</v>
       </c>
-      <c r="Y100" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z100" s="40">
+      <c r="Y100" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z100" s="36">
         <f>Z99/Z103</f>
-        <v>0.21005324353620494</v>
+        <v>0.20797413931580511</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8714,11 +9165,11 @@
         <v>92</v>
       </c>
       <c r="Y101" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z101" s="46">
-        <f>T116*R34</f>
-        <v>15333165680.000002</v>
+        <v>142</v>
+      </c>
+      <c r="Z101" s="40" cm="1">
+        <f t="array" ref="Z101">_FV(A1,"Market cap",TRUE)</f>
+        <v>15527209999</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8776,12 +9227,12 @@
       <c r="R102" s="10">
         <v>-738104000</v>
       </c>
-      <c r="Y102" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z102" s="40">
+      <c r="Y102" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z102" s="36">
         <f>Z101/Z103</f>
-        <v>0.7899467564637952</v>
+        <v>0.79202586068419489</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -8839,12 +9290,12 @@
       <c r="R103" s="1">
         <v>1428691000</v>
       </c>
-      <c r="Y103" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z103" s="47">
+      <c r="Y103" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z103" s="41">
         <f>Z99+Z101</f>
-        <v>19410378680</v>
+        <v>19604422999</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8902,14 +9353,14 @@
       <c r="R104" s="11">
         <v>690587000</v>
       </c>
-      <c r="Y104" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z104" s="38"/>
+      <c r="Y104" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z104" s="65"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -8983,11 +9434,11 @@
       <c r="W105" s="15"/>
       <c r="X105" s="15"/>
       <c r="Y105" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z105" s="28">
         <f>(Z100*Z92)+(Z102*Z97)</f>
-        <v>7.8699687773373328E-2</v>
+        <v>7.9018927804936454E-2</v>
       </c>
       <c r="AA105" s="15"/>
       <c r="AH105" s="15"/>
@@ -9002,7 +9453,7 @@
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
       <c r="AS105" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AT105" s="28">
         <f>(AT100*AT92)+(AT102*AT97)</f>
@@ -9064,33 +9515,33 @@
       <c r="R106" s="1">
         <v>427228000</v>
       </c>
-      <c r="S106" s="48">
+      <c r="S106" s="42">
         <f>R106*(1+$Z$106)</f>
         <v>490947036.63835078</v>
       </c>
-      <c r="T106" s="48">
+      <c r="T106" s="42">
         <f t="shared" ref="T106:W106" si="17">S106*(1+$Z$106)</f>
         <v>564169466.38323832</v>
       </c>
-      <c r="U106" s="48">
+      <c r="U106" s="42">
         <f t="shared" si="17"/>
         <v>648312675.39274228</v>
       </c>
-      <c r="V106" s="48">
+      <c r="V106" s="42">
         <f t="shared" si="17"/>
         <v>745005446.27025342</v>
       </c>
-      <c r="W106" s="48">
+      <c r="W106" s="42">
         <f t="shared" si="17"/>
         <v>856119486.84499371</v>
       </c>
-      <c r="X106" s="49" t="s">
+      <c r="X106" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y106" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="Y106" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z106" s="51">
+      <c r="Z106" s="45">
         <f>(SUM(S4:W4)/5)</f>
         <v>0.14914527287151297</v>
       </c>
@@ -9114,150 +9565,151 @@
       <c r="P107" s="13"/>
       <c r="Q107" s="13"/>
       <c r="R107" s="13"/>
-      <c r="S107" s="49"/>
-      <c r="T107" s="49"/>
-      <c r="U107" s="49"/>
-      <c r="V107" s="49"/>
-      <c r="W107" s="52">
+      <c r="S107" s="43"/>
+      <c r="T107" s="43"/>
+      <c r="U107" s="43"/>
+      <c r="V107" s="43"/>
+      <c r="W107" s="46">
         <f>W106*(1+Z107)/(Z108-Z107)</f>
-        <v>16341295646.252024</v>
-      </c>
-      <c r="X107" s="53" t="s">
+        <v>16244722168.216143</v>
+      </c>
+      <c r="X107" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="Y107" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z107" s="55">
+      <c r="Z107" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="S108" s="52">
+      <c r="S108" s="46">
         <f t="shared" ref="S108:U108" si="18">S107+S106</f>
         <v>490947036.63835078</v>
       </c>
-      <c r="T108" s="52">
+      <c r="T108" s="46">
         <f t="shared" si="18"/>
         <v>564169466.38323832</v>
       </c>
-      <c r="U108" s="52">
+      <c r="U108" s="46">
         <f t="shared" si="18"/>
         <v>648312675.39274228</v>
       </c>
-      <c r="V108" s="52">
+      <c r="V108" s="46">
         <f>V107+V106</f>
         <v>745005446.27025342</v>
       </c>
-      <c r="W108" s="52">
+      <c r="W108" s="46">
         <f>W107+W106</f>
-        <v>17197415133.097019</v>
-      </c>
-      <c r="X108" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y108" s="56" t="s">
+        <v>17100841655.061136</v>
+      </c>
+      <c r="X108" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y108" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z108" s="51">
+        <f>Z105</f>
+        <v>7.9018927804936454E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
+      <c r="S109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="Z108" s="57">
-        <f>Z105</f>
-        <v>7.8699687773373328E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="S109" s="58" t="s">
+      <c r="T109" s="61"/>
+    </row>
+    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="S110" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="T109" s="59"/>
-    </row>
-    <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="S110" s="60" t="s">
+      <c r="T110" s="40">
+        <f>NPV(Z108,S108,T108,U108,V108,W108)</f>
+        <v>13696762502.785799</v>
+      </c>
+    </row>
+    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
+      <c r="S111" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="T110" s="46">
-        <f>NPV(Z108,S108,T108,U108,V108,W108)</f>
-        <v>13781727370.44869</v>
-      </c>
-    </row>
-    <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="S111" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="T111" s="46">
+      <c r="T111" s="40">
         <f>R40</f>
         <v>2006934000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="S112" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="T112" s="46">
+      <c r="S112" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="T112" s="40">
         <f>Z99</f>
         <v>4077213000</v>
       </c>
     </row>
     <row r="113" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S113" s="60" t="s">
+      <c r="S113" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="T113" s="40">
+        <f>T110+T111-T112</f>
+        <v>11626483502.785799</v>
+      </c>
+    </row>
+    <row r="114" spans="19:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="S114" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="T113" s="46">
-        <f>T110+T111-T112</f>
-        <v>11711448370.44869</v>
-      </c>
-    </row>
-    <row r="114" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S114" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="T114" s="61">
+      <c r="T114" s="53">
         <f>R34*(1+(5*X16))</f>
         <v>183593269.79549646</v>
       </c>
     </row>
     <row r="115" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S115" s="62" t="s">
+      <c r="S115" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="T115" s="66">
+        <f>T113/T114</f>
+        <v>63.327394929762271</v>
+      </c>
+    </row>
+    <row r="116" spans="19:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="S116" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="T115" s="63">
-        <f>T113/T114</f>
-        <v>63.79018350451522</v>
-      </c>
-    </row>
-    <row r="116" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S116" s="64" t="s">
+      <c r="T116" s="59" cm="1">
+        <f t="array" ref="T116">_FV(A1,"Price")</f>
+        <v>93.82</v>
+      </c>
+    </row>
+    <row r="117" spans="19:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="S117" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="T116" s="65">
-        <v>94.43</v>
-      </c>
-    </row>
-    <row r="117" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S117" s="66" t="s">
+      <c r="T117" s="56">
+        <f>T115/T116-1</f>
+        <v>-0.32501177862116526</v>
+      </c>
+    </row>
+    <row r="118" spans="19:20" ht="20" x14ac:dyDescent="0.25">
+      <c r="S118" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="T117" s="67">
-        <f>T115/T116-1</f>
-        <v>-0.3244712114315873</v>
-      </c>
-    </row>
-    <row r="118" spans="19:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="S118" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="T118" s="68" t="str">
+      <c r="T118" s="57" t="str">
         <f>IF(T115&gt;T116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="S109:T109"/>
     <mergeCell ref="Y83:Z83"/>
     <mergeCell ref="Y84:Z84"/>
     <mergeCell ref="Y93:Z93"/>
     <mergeCell ref="Y98:Z98"/>
     <mergeCell ref="Y104:Z104"/>
-    <mergeCell ref="S109:T109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/SPLK" display="ROIC.AI | SPLK" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
